--- a/sources/Final-Caregiver-Expenditure-Estimates_GS.xlsx
+++ b/sources/Final-Caregiver-Expenditure-Estimates_GS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Source: https://www.aarp.org/content/dam/aarp/research/surveys_statistics/ltc/2016/family-caregiving-costs.doi.10.26419-2Fres.00138.001.pdf</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Exp.</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   </si>
   <si>
     <t>https://www.aarp.org/caregiving/financial-legal/info-2019/tax-credit-for-caring-act.html</t>
-  </si>
-  <si>
-    <t>Adj. Final</t>
   </si>
   <si>
     <r>
@@ -178,6 +172,21 @@
       <t>, CBO Memorandum, March 1999.</t>
     </r>
   </si>
+  <si>
+    <t>Eld Exp.</t>
+  </si>
+  <si>
+    <t>Age Adj.</t>
+  </si>
+  <si>
+    <t>Adj. Final (billions)</t>
+  </si>
+  <si>
+    <t>2021-30</t>
+  </si>
+  <si>
+    <t>Sum OOP</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +195,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -237,10 +246,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,18 +535,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,12 +583,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,12 +613,12 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -649,6 +663,9 @@
       <c r="M25">
         <v>2030</v>
       </c>
+      <c r="N25" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -690,115 +707,156 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6">
-        <f>'CBO Tables'!O19*1.54</f>
-        <v>11.703999999999999</v>
-      </c>
-      <c r="D27" s="6">
+        <f>'CBO Tables'!F4</f>
+        <v>55.8</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" ref="D27:M27" si="0">C27*D26/C26</f>
-        <v>12.264424286227021</v>
-      </c>
-      <c r="E27" s="6">
+        <v>58.471879286694104</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
-        <v>12.831235993726368</v>
-      </c>
-      <c r="F27" s="6">
+        <v>61.174211248285324</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>13.3551771710646</v>
-      </c>
-      <c r="G27" s="6">
+        <v>63.672153635116608</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>13.93361283439287</v>
-      </c>
-      <c r="H27" s="6">
+        <v>66.429903978052138</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>14.551006013048756</v>
-      </c>
-      <c r="I27" s="6">
+        <v>69.373388203017839</v>
+      </c>
+      <c r="I27" s="7">
         <f t="shared" si="0"/>
-        <v>15.200508931073644</v>
-      </c>
-      <c r="J27" s="6">
+        <v>72.469958847736635</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="0"/>
-        <v>15.872339051383785</v>
-      </c>
-      <c r="K27" s="6">
+        <v>75.672976680384096</v>
+      </c>
+      <c r="K27" s="7">
         <f t="shared" si="0"/>
-        <v>16.542155119941391</v>
-      </c>
-      <c r="L27" s="6">
+        <v>78.866392318244181</v>
+      </c>
+      <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>17.190507151250543</v>
-      </c>
-      <c r="M27" s="6">
+        <v>81.957475994513047</v>
+      </c>
+      <c r="M27" s="7">
         <f t="shared" si="0"/>
-        <v>17.851576480768564</v>
-      </c>
+        <v>85.109190672153659</v>
+      </c>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="8">
-        <f>C27*1.25</f>
-        <v>14.629999999999999</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" ref="D28:M28" si="1">D27*1.25</f>
-        <v>15.330530357783775</v>
-      </c>
-      <c r="E28" s="8">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6">
+        <f>C27*0.25</f>
+        <v>13.95</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:M28" si="1">D27*0.25</f>
+        <v>14.617969821673526</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>16.039044992157962</v>
-      </c>
-      <c r="F28" s="8">
+        <v>15.293552812071331</v>
+      </c>
+      <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>16.693971463830749</v>
-      </c>
-      <c r="G28" s="8">
+        <v>15.918038408779152</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
-        <v>17.417016042991087</v>
-      </c>
-      <c r="H28" s="8">
+        <v>16.607475994513035</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>18.188757516310943</v>
-      </c>
-      <c r="I28" s="8">
+        <v>17.34334705075446</v>
+      </c>
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>19.000636163842056</v>
-      </c>
-      <c r="J28" s="8">
+        <v>18.117489711934159</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="1"/>
-        <v>19.84042381422973</v>
-      </c>
-      <c r="K28" s="8">
+        <v>18.918244170096024</v>
+      </c>
+      <c r="K28" s="7">
         <f t="shared" si="1"/>
-        <v>20.677693899926737</v>
-      </c>
-      <c r="L28" s="8">
+        <v>19.716598079561045</v>
+      </c>
+      <c r="L28" s="7">
         <f t="shared" si="1"/>
-        <v>21.488133939063179</v>
-      </c>
-      <c r="M28" s="8">
+        <v>20.489368998628262</v>
+      </c>
+      <c r="M28" s="7">
         <f t="shared" si="1"/>
-        <v>22.314470600960703</v>
-      </c>
+        <v>21.277297668038415</v>
+      </c>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C27+C28</f>
+        <v>69.75</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:M29" si="2">D27+D28</f>
+        <v>73.08984910836763</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>76.467764060356657</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>79.590192043895755</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>83.037379972565176</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>86.716735253772299</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="2"/>
+        <v>90.58744855967079</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>94.591220850480113</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>98.582990397805219</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>102.44684499314131</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>106.38648834019207</v>
+      </c>
+      <c r="N29" s="2">
+        <f>SUM(D29:M29)</f>
+        <v>891.49691358024711</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -813,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,30 +895,44 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <f>F28+F21+F13</f>
+        <v>55.8</v>
+      </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <f>O12+O19+O26</f>
+        <v>104.2</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
